--- a/2010 pop:demographic data/MANIPULATED_DEC_10_SF1_SF1DP1_with_ann.xlsx
+++ b/2010 pop:demographic data/MANIPULATED_DEC_10_SF1_SF1DP1_with_ann.xlsx
@@ -1,26 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28502"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johnchrishays/Documents/Urban Poverty and economic Development/2010 originals -- aff_download 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jch97/Documents/WashingtonDC_EconomicBaseAnalysis/2010 pop:demographic data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="460" windowWidth="27640" windowHeight="16540"/>
+    <workbookView xWindow="1040" yWindow="460" windowWidth="42820" windowHeight="25780" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="transposed" sheetId="2" r:id="rId1"/>
-    <sheet name="DEC_10_SF1_SF1DP1_with_ann" sheetId="1" r:id="rId2"/>
+    <sheet name="DEP manipulated" sheetId="3" r:id="rId1"/>
+    <sheet name="transposed'10" sheetId="2" r:id="rId2"/>
+    <sheet name="DEC_10_SF1_SF1DP1_with_ann" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1946" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1949" uniqueCount="809">
   <si>
     <t>GEO.id</t>
   </si>
@@ -2423,13 +2432,44 @@
   </si>
   <si>
     <t>Census Tract 109, District of Columbia, District of Columbia</t>
+  </si>
+  <si>
+    <t>Number; SEX AND AGE - Total population - 0 - 24 years</t>
+  </si>
+  <si>
+    <t>COMBINED</t>
+  </si>
+  <si>
+    <t>Number; SEX AND AGE - Total population - 65+ years</t>
+  </si>
+  <si>
+    <t>Number; SEX AND AGE - Total population - 24 - 64 years</t>
+  </si>
+  <si>
+    <t>Percent; SEX AND AGE - Total population - 0 - 24 years</t>
+  </si>
+  <si>
+    <t>Percent; SEX AND AGE - Total population - 24 - 64 years</t>
+  </si>
+  <si>
+    <t>Percent; SEX AND AGE - Total population - 65+ years</t>
+  </si>
+  <si>
+    <t>AGE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2862,54 +2902,56 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2949,6 +2991,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="42" builtinId="5"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -3263,10 +3306,711 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="str">
+        <f>'transposed''10'!A1</f>
+        <v>GEO.id</v>
+      </c>
+      <c r="B1" t="str">
+        <f>'transposed''10'!B1</f>
+        <v>Id</v>
+      </c>
+      <c r="C1" t="str">
+        <f>'transposed''10'!C1</f>
+        <v>1400000US11001007304</v>
+      </c>
+      <c r="D1" t="str">
+        <f>'transposed''10'!D1</f>
+        <v>1400000US11001007403</v>
+      </c>
+      <c r="E1" t="str">
+        <f>'transposed''10'!E1</f>
+        <v>1400000US11001007404</v>
+      </c>
+      <c r="F1" t="str">
+        <f>'transposed''10'!F1</f>
+        <v>1400000US11001007409</v>
+      </c>
+      <c r="G1" t="str">
+        <f>'transposed''10'!G1</f>
+        <v>1400000US11001009700</v>
+      </c>
+      <c r="H1" t="str">
+        <f>'transposed''10'!H1</f>
+        <v>1400000US11001009801</v>
+      </c>
+      <c r="I1" t="str">
+        <f>'transposed''10'!I1</f>
+        <v>1400000US11001009802</v>
+      </c>
+      <c r="J1" t="str">
+        <f>'transposed''10'!J1</f>
+        <v>1400000US11001009804</v>
+      </c>
+      <c r="K1" t="str">
+        <f>'transposed''10'!K1</f>
+        <v>1400000US11001009807</v>
+      </c>
+      <c r="L1" t="str">
+        <f>'transposed''10'!L1</f>
+        <v>1400000US11001009810</v>
+      </c>
+      <c r="M1" t="str">
+        <f>'transposed''10'!M1</f>
+        <v>1400000US11001009811</v>
+      </c>
+      <c r="N1" t="str">
+        <f>'transposed''10'!N1</f>
+        <v>1400000US11001010400</v>
+      </c>
+      <c r="O1" t="str">
+        <f>'transposed''10'!O1</f>
+        <v>1400000US11001010900</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>'transposed''10'!A2</f>
+        <v>GEO.id2</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'transposed''10'!B2</f>
+        <v>Id2</v>
+      </c>
+      <c r="C2">
+        <f>'transposed''10'!C2</f>
+        <v>11001007304</v>
+      </c>
+      <c r="D2">
+        <f>'transposed''10'!D2</f>
+        <v>11001007403</v>
+      </c>
+      <c r="E2">
+        <f>'transposed''10'!E2</f>
+        <v>11001007404</v>
+      </c>
+      <c r="F2">
+        <f>'transposed''10'!F2</f>
+        <v>11001007409</v>
+      </c>
+      <c r="G2">
+        <f>'transposed''10'!G2</f>
+        <v>11001009700</v>
+      </c>
+      <c r="H2">
+        <f>'transposed''10'!H2</f>
+        <v>11001009801</v>
+      </c>
+      <c r="I2">
+        <f>'transposed''10'!I2</f>
+        <v>11001009802</v>
+      </c>
+      <c r="J2">
+        <f>'transposed''10'!J2</f>
+        <v>11001009804</v>
+      </c>
+      <c r="K2">
+        <f>'transposed''10'!K2</f>
+        <v>11001009807</v>
+      </c>
+      <c r="L2">
+        <f>'transposed''10'!L2</f>
+        <v>11001009810</v>
+      </c>
+      <c r="M2">
+        <f>'transposed''10'!M2</f>
+        <v>11001009811</v>
+      </c>
+      <c r="N2">
+        <f>'transposed''10'!N2</f>
+        <v>11001010400</v>
+      </c>
+      <c r="O2">
+        <f>'transposed''10'!O2</f>
+        <v>11001010900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>'transposed''10'!A3</f>
+        <v>GEO.display-label</v>
+      </c>
+      <c r="B3" t="str">
+        <f>'transposed''10'!B3</f>
+        <v>Geography</v>
+      </c>
+      <c r="C3" t="str">
+        <f>'transposed''10'!C3</f>
+        <v>Census Tract 73.04, District of Columbia, District of Columbia</v>
+      </c>
+      <c r="D3" t="str">
+        <f>'transposed''10'!D3</f>
+        <v>Census Tract 74.03, District of Columbia, District of Columbia</v>
+      </c>
+      <c r="E3" t="str">
+        <f>'transposed''10'!E3</f>
+        <v>Census Tract 74.04, District of Columbia, District of Columbia</v>
+      </c>
+      <c r="F3" t="str">
+        <f>'transposed''10'!F3</f>
+        <v>Census Tract 74.09, District of Columbia, District of Columbia</v>
+      </c>
+      <c r="G3" t="str">
+        <f>'transposed''10'!G3</f>
+        <v>Census Tract 97, District of Columbia, District of Columbia</v>
+      </c>
+      <c r="H3" t="str">
+        <f>'transposed''10'!H3</f>
+        <v>Census Tract 98.01, District of Columbia, District of Columbia</v>
+      </c>
+      <c r="I3" t="str">
+        <f>'transposed''10'!I3</f>
+        <v>Census Tract 98.02, District of Columbia, District of Columbia</v>
+      </c>
+      <c r="J3" t="str">
+        <f>'transposed''10'!J3</f>
+        <v>Census Tract 98.04, District of Columbia, District of Columbia</v>
+      </c>
+      <c r="K3" t="str">
+        <f>'transposed''10'!K3</f>
+        <v>Census Tract 98.07, District of Columbia, District of Columbia</v>
+      </c>
+      <c r="L3" t="str">
+        <f>'transposed''10'!L3</f>
+        <v>Census Tract 98.10, District of Columbia, District of Columbia</v>
+      </c>
+      <c r="M3" t="str">
+        <f>'transposed''10'!M3</f>
+        <v>Census Tract 98.11, District of Columbia, District of Columbia</v>
+      </c>
+      <c r="N3" t="str">
+        <f>'transposed''10'!N3</f>
+        <v>Census Tract 104, District of Columbia, District of Columbia</v>
+      </c>
+      <c r="O3" t="str">
+        <f>'transposed''10'!O3</f>
+        <v>Census Tract 109, District of Columbia, District of Columbia</v>
+      </c>
+      <c r="P3" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B5" t="str">
+        <f>'transposed''10'!B4</f>
+        <v>Number; SEX AND AGE - Total population</v>
+      </c>
+      <c r="C5">
+        <f>'transposed''10'!C4</f>
+        <v>3546</v>
+      </c>
+      <c r="D5">
+        <f>'transposed''10'!D4</f>
+        <v>2859</v>
+      </c>
+      <c r="E5">
+        <f>'transposed''10'!E4</f>
+        <v>3310</v>
+      </c>
+      <c r="F5">
+        <f>'transposed''10'!F4</f>
+        <v>3499</v>
+      </c>
+      <c r="G5">
+        <f>'transposed''10'!G4</f>
+        <v>3177</v>
+      </c>
+      <c r="H5">
+        <f>'transposed''10'!H4</f>
+        <v>1575</v>
+      </c>
+      <c r="I5">
+        <f>'transposed''10'!I4</f>
+        <v>1693</v>
+      </c>
+      <c r="J5">
+        <f>'transposed''10'!J4</f>
+        <v>2473</v>
+      </c>
+      <c r="K5">
+        <f>'transposed''10'!K4</f>
+        <v>3072</v>
+      </c>
+      <c r="L5">
+        <f>'transposed''10'!L4</f>
+        <v>2507</v>
+      </c>
+      <c r="M5">
+        <f>'transposed''10'!M4</f>
+        <v>4365</v>
+      </c>
+      <c r="N5">
+        <f>'transposed''10'!N4</f>
+        <v>4365</v>
+      </c>
+      <c r="O5">
+        <f>'transposed''10'!O4</f>
+        <v>3211</v>
+      </c>
+      <c r="P5">
+        <f>SUM(C5:O5)</f>
+        <v>39652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>801</v>
+      </c>
+      <c r="C6">
+        <f>SUM('transposed''10'!C6,'transposed''10'!C8,'transposed''10'!C10,'transposed''10'!C12,'transposed''10'!C14)</f>
+        <v>1508</v>
+      </c>
+      <c r="D6">
+        <f>SUM('transposed''10'!D6,'transposed''10'!D8,'transposed''10'!D10,'transposed''10'!D12,'transposed''10'!D14)</f>
+        <v>1326</v>
+      </c>
+      <c r="E6">
+        <f>SUM('transposed''10'!E6,'transposed''10'!E8,'transposed''10'!E10,'transposed''10'!E12,'transposed''10'!E14)</f>
+        <v>1602</v>
+      </c>
+      <c r="F6">
+        <f>SUM('transposed''10'!F6,'transposed''10'!F8,'transposed''10'!F10,'transposed''10'!F12,'transposed''10'!F14)</f>
+        <v>1644</v>
+      </c>
+      <c r="G6">
+        <f>SUM('transposed''10'!G6,'transposed''10'!G8,'transposed''10'!G10,'transposed''10'!G12,'transposed''10'!G14)</f>
+        <v>1282</v>
+      </c>
+      <c r="H6">
+        <f>SUM('transposed''10'!H6,'transposed''10'!H8,'transposed''10'!H10,'transposed''10'!H12,'transposed''10'!H14)</f>
+        <v>647</v>
+      </c>
+      <c r="I6">
+        <f>SUM('transposed''10'!I6,'transposed''10'!I8,'transposed''10'!I10,'transposed''10'!I12,'transposed''10'!I14)</f>
+        <v>754</v>
+      </c>
+      <c r="J6">
+        <f>SUM('transposed''10'!J6,'transposed''10'!J8,'transposed''10'!J10,'transposed''10'!J12,'transposed''10'!J14)</f>
+        <v>995</v>
+      </c>
+      <c r="K6">
+        <f>SUM('transposed''10'!K6,'transposed''10'!K8,'transposed''10'!K10,'transposed''10'!K12,'transposed''10'!K14)</f>
+        <v>971</v>
+      </c>
+      <c r="L6">
+        <f>SUM('transposed''10'!L6,'transposed''10'!L8,'transposed''10'!L10,'transposed''10'!L12,'transposed''10'!L14)</f>
+        <v>1074</v>
+      </c>
+      <c r="M6">
+        <f>SUM('transposed''10'!M6,'transposed''10'!M8,'transposed''10'!M10,'transposed''10'!M12,'transposed''10'!M14)</f>
+        <v>1951</v>
+      </c>
+      <c r="N6">
+        <f>SUM('transposed''10'!N6,'transposed''10'!N8,'transposed''10'!N10,'transposed''10'!N12,'transposed''10'!N14)</f>
+        <v>1445</v>
+      </c>
+      <c r="O6">
+        <f>SUM('transposed''10'!O6,'transposed''10'!O8,'transposed''10'!O10,'transposed''10'!O12,'transposed''10'!O14)</f>
+        <v>1624</v>
+      </c>
+      <c r="P6">
+        <f>SUM(C6:O6)</f>
+        <v>16823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>804</v>
+      </c>
+      <c r="C7">
+        <f>SUM('transposed''10'!C16,'transposed''10'!C18,'transposed''10'!C20,'transposed''10'!C22,'transposed''10'!C24,'transposed''10'!C26,'transposed''10'!C28,'transposed''10'!C30)</f>
+        <v>1646</v>
+      </c>
+      <c r="D7">
+        <f>SUM('transposed''10'!D16,'transposed''10'!D18,'transposed''10'!D20,'transposed''10'!D22,'transposed''10'!D24,'transposed''10'!D26,'transposed''10'!D28,'transposed''10'!D30)</f>
+        <v>1356</v>
+      </c>
+      <c r="E7">
+        <f>SUM('transposed''10'!E16,'transposed''10'!E18,'transposed''10'!E20,'transposed''10'!E22,'transposed''10'!E24,'transposed''10'!E26,'transposed''10'!E28,'transposed''10'!E30)</f>
+        <v>1547</v>
+      </c>
+      <c r="F7">
+        <f>SUM('transposed''10'!F16,'transposed''10'!F18,'transposed''10'!F20,'transposed''10'!F22,'transposed''10'!F24,'transposed''10'!F26,'transposed''10'!F28,'transposed''10'!F30)</f>
+        <v>1659</v>
+      </c>
+      <c r="G7">
+        <f>SUM('transposed''10'!G16,'transposed''10'!G18,'transposed''10'!G20,'transposed''10'!G22,'transposed''10'!G24,'transposed''10'!G26,'transposed''10'!G28,'transposed''10'!G30)</f>
+        <v>1545</v>
+      </c>
+      <c r="H7">
+        <f>SUM('transposed''10'!H16,'transposed''10'!H18,'transposed''10'!H20,'transposed''10'!H22,'transposed''10'!H24,'transposed''10'!H26,'transposed''10'!H28,'transposed''10'!H30)</f>
+        <v>737</v>
+      </c>
+      <c r="I7">
+        <f>SUM('transposed''10'!I16,'transposed''10'!I18,'transposed''10'!I20,'transposed''10'!I22,'transposed''10'!I24,'transposed''10'!I26,'transposed''10'!I28,'transposed''10'!I30)</f>
+        <v>813</v>
+      </c>
+      <c r="J7">
+        <f>SUM('transposed''10'!J16,'transposed''10'!J18,'transposed''10'!J20,'transposed''10'!J22,'transposed''10'!J24,'transposed''10'!J26,'transposed''10'!J28,'transposed''10'!J30)</f>
+        <v>1255</v>
+      </c>
+      <c r="K7">
+        <f>SUM('transposed''10'!K16,'transposed''10'!K18,'transposed''10'!K20,'transposed''10'!K22,'transposed''10'!K24,'transposed''10'!K26,'transposed''10'!K28,'transposed''10'!K30)</f>
+        <v>1693</v>
+      </c>
+      <c r="L7">
+        <f>SUM('transposed''10'!L16,'transposed''10'!L18,'transposed''10'!L20,'transposed''10'!L22,'transposed''10'!L24,'transposed''10'!L26,'transposed''10'!L28,'transposed''10'!L30)</f>
+        <v>1291</v>
+      </c>
+      <c r="M7">
+        <f>SUM('transposed''10'!M16,'transposed''10'!M18,'transposed''10'!M20,'transposed''10'!M22,'transposed''10'!M24,'transposed''10'!M26,'transposed''10'!M28,'transposed''10'!M30)</f>
+        <v>2139</v>
+      </c>
+      <c r="N7">
+        <f>SUM('transposed''10'!N16,'transposed''10'!N18,'transposed''10'!N20,'transposed''10'!N22,'transposed''10'!N24,'transposed''10'!N26,'transposed''10'!N28,'transposed''10'!N30)</f>
+        <v>2525</v>
+      </c>
+      <c r="O7">
+        <f>SUM('transposed''10'!O16,'transposed''10'!O18,'transposed''10'!O20,'transposed''10'!O22,'transposed''10'!O24,'transposed''10'!O26,'transposed''10'!O28,'transposed''10'!O30)</f>
+        <v>1440</v>
+      </c>
+      <c r="P7">
+        <f>SUM(C7:O7)</f>
+        <v>19646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>803</v>
+      </c>
+      <c r="C8">
+        <f>SUM('transposed''10'!C32,'transposed''10'!C34,'transposed''10'!C38,'transposed''10'!C40,'transposed''10'!C36)</f>
+        <v>392</v>
+      </c>
+      <c r="D8">
+        <f>SUM('transposed''10'!D32,'transposed''10'!D34,'transposed''10'!D38,'transposed''10'!D40,'transposed''10'!D36)</f>
+        <v>177</v>
+      </c>
+      <c r="E8">
+        <f>SUM('transposed''10'!E32,'transposed''10'!E34,'transposed''10'!E38,'transposed''10'!E40,'transposed''10'!E36)</f>
+        <v>161</v>
+      </c>
+      <c r="F8">
+        <f>SUM('transposed''10'!F32,'transposed''10'!F34,'transposed''10'!F38,'transposed''10'!F40,'transposed''10'!F36)</f>
+        <v>196</v>
+      </c>
+      <c r="G8">
+        <f>SUM('transposed''10'!G32,'transposed''10'!G34,'transposed''10'!G38,'transposed''10'!G40,'transposed''10'!G36)</f>
+        <v>350</v>
+      </c>
+      <c r="H8">
+        <f>SUM('transposed''10'!H32,'transposed''10'!H34,'transposed''10'!H38,'transposed''10'!H40,'transposed''10'!H36)</f>
+        <v>191</v>
+      </c>
+      <c r="I8">
+        <f>SUM('transposed''10'!I32,'transposed''10'!I34,'transposed''10'!I38,'transposed''10'!I40,'transposed''10'!I36)</f>
+        <v>126</v>
+      </c>
+      <c r="J8">
+        <f>SUM('transposed''10'!J32,'transposed''10'!J34,'transposed''10'!J38,'transposed''10'!J40,'transposed''10'!J36)</f>
+        <v>223</v>
+      </c>
+      <c r="K8">
+        <f>SUM('transposed''10'!K32,'transposed''10'!K34,'transposed''10'!K38,'transposed''10'!K40,'transposed''10'!K36)</f>
+        <v>408</v>
+      </c>
+      <c r="L8">
+        <f>SUM('transposed''10'!L32,'transposed''10'!L34,'transposed''10'!L38,'transposed''10'!L40,'transposed''10'!L36)</f>
+        <v>142</v>
+      </c>
+      <c r="M8">
+        <f>SUM('transposed''10'!M32,'transposed''10'!M34,'transposed''10'!M38,'transposed''10'!M40,'transposed''10'!M36)</f>
+        <v>275</v>
+      </c>
+      <c r="N8">
+        <f>SUM('transposed''10'!N32,'transposed''10'!N34,'transposed''10'!N38,'transposed''10'!N40,'transposed''10'!N36)</f>
+        <v>395</v>
+      </c>
+      <c r="O8">
+        <f>SUM('transposed''10'!O32,'transposed''10'!O34,'transposed''10'!O38,'transposed''10'!O40,'transposed''10'!O36)</f>
+        <v>147</v>
+      </c>
+      <c r="P8">
+        <f>SUM(C8:O8)</f>
+        <v>3183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>805</v>
+      </c>
+      <c r="C9" s="1">
+        <f>C6/C$5</f>
+        <v>0.42526790750141003</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" ref="D9:O9" si="0">D6/D$5</f>
+        <v>0.46379853095487933</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.48398791540785496</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.46984852815090028</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.40352533836953103</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.41079365079365077</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.44536326048434732</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.40234532955923979</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.31608072916666669</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.42840047865975267</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.44696449026345936</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33104238258877433</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.50576144503270004</v>
+      </c>
+      <c r="P9" s="1">
+        <f t="shared" ref="P9" si="1">P6/P$5</f>
+        <v>0.42426611520225965</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>806</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" ref="C10:O11" si="2">C7/C$5</f>
+        <v>0.46418499717992101</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.47429171038824763</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.46737160120845922</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.47413546727636469</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.48630783758262514</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.46793650793650793</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.4802126402835204</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.50748079255964418</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.55110677083333337</v>
+      </c>
+      <c r="L10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.51495811727163943</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.49003436426116836</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.57846506300114553</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.44845842416692622</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" ref="P10" si="3">P7/P$5</f>
+        <v>0.49546050640572986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>807</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11054709531866892</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="2"/>
+        <v>6.190975865687303E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="2"/>
+        <v>4.8640483383685804E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="2"/>
+        <v>5.6016004572735069E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11016682404784388</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12126984126984126</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="2"/>
+        <v>7.4424099232132307E-2</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="2"/>
+        <v>9.0173877881116055E-2</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1328125</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="2"/>
+        <v>5.6641404068607897E-2</v>
+      </c>
+      <c r="M11" s="1">
+        <f t="shared" si="2"/>
+        <v>6.3001145475372278E-2</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="2"/>
+        <v>9.0492554410080181E-2</v>
+      </c>
+      <c r="O11" s="1">
+        <f t="shared" si="2"/>
+        <v>4.5780130800373714E-2</v>
+      </c>
+      <c r="P11" s="1">
+        <f t="shared" ref="P11" si="4">P8/P$5</f>
+        <v>8.0273378392010486E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B12" t="str">
+        <f>'transposed''10'!B42</f>
+        <v>Number; SEX AND AGE - Total population - Median age (years)</v>
+      </c>
+      <c r="C12">
+        <f>'transposed''10'!C42</f>
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <f>'transposed''10'!D42</f>
+        <v>26.8</v>
+      </c>
+      <c r="E12">
+        <f>'transposed''10'!E42</f>
+        <v>26.4</v>
+      </c>
+      <c r="F12">
+        <f>'transposed''10'!F42</f>
+        <v>26.6</v>
+      </c>
+      <c r="G12">
+        <f>'transposed''10'!G42</f>
+        <v>32.700000000000003</v>
+      </c>
+      <c r="H12">
+        <f>'transposed''10'!H42</f>
+        <v>30.9</v>
+      </c>
+      <c r="I12">
+        <f>'transposed''10'!I42</f>
+        <v>28.4</v>
+      </c>
+      <c r="J12">
+        <f>'transposed''10'!J42</f>
+        <v>32.5</v>
+      </c>
+      <c r="K12">
+        <f>'transposed''10'!K42</f>
+        <v>39</v>
+      </c>
+      <c r="L12">
+        <f>'transposed''10'!L42</f>
+        <v>29.3</v>
+      </c>
+      <c r="M12">
+        <f>'transposed''10'!M42</f>
+        <v>28.2</v>
+      </c>
+      <c r="N12">
+        <f>'transposed''10'!N42</f>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="O12">
+        <f>'transposed''10'!O42</f>
+        <v>24.7</v>
+      </c>
+      <c r="P12">
+        <v>30.381720972460407</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O375"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3425,17 +4169,17 @@
       <c r="C4">
         <v>3546</v>
       </c>
-      <c r="D4" t="s">
-        <v>755</v>
-      </c>
-      <c r="E4" t="s">
-        <v>761</v>
-      </c>
-      <c r="F4" t="s">
-        <v>767</v>
-      </c>
-      <c r="G4" t="s">
-        <v>773</v>
+      <c r="D4">
+        <v>2859</v>
+      </c>
+      <c r="E4">
+        <v>3310</v>
+      </c>
+      <c r="F4">
+        <v>3499</v>
+      </c>
+      <c r="G4">
+        <v>3177</v>
       </c>
       <c r="H4">
         <v>1575</v>
@@ -3452,8 +4196,8 @@
       <c r="L4">
         <v>2507</v>
       </c>
-      <c r="M4" t="s">
-        <v>790</v>
+      <c r="M4">
+        <v>4365</v>
       </c>
       <c r="N4">
         <v>4365</v>
@@ -20904,12 +21648,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:NK15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
